--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_CPHDCAM.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang3/2.XuLyBH/XLBH2303_CPHDCAM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
   <si>
     <t>STT</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>ĐM</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
   </si>
 </sst>
 </file>
@@ -681,6 +684,30 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -698,30 +725,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1032,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1065,43 +1068,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1146,58 +1149,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="83" t="s">
+      <c r="K4" s="85"/>
+      <c r="L4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="72" t="s">
         <v>1</v>
       </c>
@@ -1228,17 +1231,17 @@
       <c r="K5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1265,9 +1268,11 @@
       <c r="I6" s="73"/>
       <c r="J6" s="67"/>
       <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
+      <c r="L6" s="67" t="s">
+        <v>68</v>
+      </c>
       <c r="M6" s="67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N6" s="68"/>
       <c r="O6" s="67" t="s">
@@ -1284,7 +1289,7 @@
       </c>
       <c r="S6" s="70"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1316,9 +1321,11 @@
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
       <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="L7" s="67" t="s">
+        <v>68</v>
+      </c>
       <c r="M7" s="67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N7" s="68"/>
       <c r="O7" s="67" t="s">
@@ -1335,7 +1342,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1364,7 +1371,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +1400,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1422,7 +1429,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1451,7 +1458,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1487,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1511,7 +1518,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1540,7 +1547,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1569,7 +1576,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1598,7 +1605,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2826,13 +2833,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2844,6 +2844,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2887,43 +2894,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2968,58 +2975,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -3044,23 +3051,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="91"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3086,7 +3093,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3117,7 +3124,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3146,7 +3153,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3175,7 +3182,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3204,7 +3211,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3233,7 +3240,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3262,7 +3269,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3293,7 +3300,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3322,7 +3329,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3351,7 +3358,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3380,7 +3387,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4611,6 +4618,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4622,13 +4636,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
